--- a/Problem 1 - Data/combined_data.xlsx
+++ b/Problem 1 - Data/combined_data.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thijm\OneDrive\Documents\MSc Aerospace Engineering\Airline Planning &amp; Optimisation\ASSIGNMENT 1\Airline_planning\Problem 1 - Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637EBADF-E28F-421B-8EDE-199610D778D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED6F1E-99E8-41D5-92BE-1BE8E6C1FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="1950" windowWidth="16095" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15075" yWindow="645" windowWidth="13455" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -150,9 +161,6 @@
     <t>Madeira</t>
   </si>
   <si>
-    <t>Populatino 2021</t>
-  </si>
-  <si>
     <t>Population 2024</t>
   </si>
   <si>
@@ -160,6 +168,9 @@
   </si>
   <si>
     <t>GDP 2024</t>
+  </si>
+  <si>
+    <t>Population 2021</t>
   </si>
 </sst>
 </file>
@@ -486,7 +497,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A21" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,16 +510,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
